--- a/data/trans_orig/P36BPD10_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>82435</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65238</v>
+        <v>64362</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>103311</v>
+        <v>104127</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1655464915962064</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1310104103712688</v>
+        <v>0.1292512677755454</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.207470160577363</v>
+        <v>0.2091076714561501</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>89</v>
@@ -762,19 +762,19 @@
         <v>70740</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58330</v>
+        <v>56720</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89971</v>
+        <v>86203</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1137818545595685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09382165313700143</v>
+        <v>0.09123116979252936</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1447144696700969</v>
+        <v>0.1386538204548802</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>158</v>
@@ -783,19 +783,19 @@
         <v>153175</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>129093</v>
+        <v>132213</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>178160</v>
+        <v>180202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1368033775950492</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1152953339519088</v>
+        <v>0.1180818814680094</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.159117802789193</v>
+        <v>0.1609418102915784</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>282712</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255471</v>
+        <v>258910</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309351</v>
+        <v>311077</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.567743859669803</v>
+        <v>0.5677438596698031</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5130383359385708</v>
+        <v>0.5199446019409503</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6212395602656674</v>
+        <v>0.6247060473383491</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>468</v>
@@ -833,19 +833,19 @@
         <v>334858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308985</v>
+        <v>312214</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>355633</v>
+        <v>358549</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5386032208807626</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4969868330096242</v>
+        <v>0.5021804721411253</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5720180189516789</v>
+        <v>0.5767079708517929</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>734</v>
@@ -854,19 +854,19 @@
         <v>617570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>583922</v>
+        <v>583312</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>653425</v>
+        <v>648547</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5515630700278878</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5215108266168343</v>
+        <v>0.5209666815432722</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5835854112718762</v>
+        <v>0.5792291158990173</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>132810</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>110137</v>
+        <v>110200</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>157205</v>
+        <v>153957</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2667096487339905</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.221177554572124</v>
+        <v>0.2213045010975132</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3157008560979056</v>
+        <v>0.3091776121519434</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>301</v>
@@ -904,19 +904,19 @@
         <v>216118</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>196680</v>
+        <v>195843</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>238762</v>
+        <v>237659</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3476149245596688</v>
+        <v>0.3476149245596687</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3163497388762913</v>
+        <v>0.3150043282035127</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3840365775579891</v>
+        <v>0.3822624045837819</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>420</v>
@@ -925,19 +925,19 @@
         <v>348928</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>318341</v>
+        <v>316205</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>380839</v>
+        <v>382289</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3116335523770629</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2843163690980301</v>
+        <v>0.2824079871033807</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.340134102276194</v>
+        <v>0.3414291193727452</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>70269</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53690</v>
+        <v>53905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>89227</v>
+        <v>91261</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07335431967199227</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05604672469411301</v>
+        <v>0.05627168976435205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09314406524410347</v>
+        <v>0.09526779579456747</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>126</v>
@@ -1050,19 +1050,19 @@
         <v>96113</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80159</v>
+        <v>80281</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>115009</v>
+        <v>113677</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08613419142517341</v>
+        <v>0.08613419142517342</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07183639312835099</v>
+        <v>0.0719464487433412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1030681577416112</v>
+        <v>0.1018751802160654</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>190</v>
@@ -1071,19 +1071,19 @@
         <v>166382</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>143315</v>
+        <v>143074</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>192963</v>
+        <v>194181</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08023080957025872</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06910793705346897</v>
+        <v>0.06899134737549398</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09304836762406922</v>
+        <v>0.09363553990419531</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>588667</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>554026</v>
+        <v>553478</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>620554</v>
+        <v>620936</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6145112508287762</v>
+        <v>0.6145112508287763</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5783495877397931</v>
+        <v>0.5777772448608859</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6477981346842564</v>
+        <v>0.6481970177470006</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>901</v>
@@ -1121,19 +1121,19 @@
         <v>634631</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>606556</v>
+        <v>603779</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>662150</v>
+        <v>662877</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5687430910717792</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5435827362802437</v>
+        <v>0.5410940076906885</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5934046293901326</v>
+        <v>0.5940563419673451</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1457</v>
@@ -1142,19 +1142,19 @@
         <v>1223298</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1175197</v>
+        <v>1177765</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1265633</v>
+        <v>1267347</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5898846900690493</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5666897939009307</v>
+        <v>0.5679284112714814</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6102989169546413</v>
+        <v>0.6111254480975393</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>299007</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>267564</v>
+        <v>267668</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>331402</v>
+        <v>333294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3121344294992314</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2793108906487552</v>
+        <v>0.279419244546215</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3459517237136712</v>
+        <v>0.3479268587280968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>580</v>
@@ -1192,19 +1192,19 @@
         <v>385105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>358122</v>
+        <v>360020</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>412417</v>
+        <v>412560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3451227175030472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3209416216287269</v>
+        <v>0.3226425618038597</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3695996870292336</v>
+        <v>0.3697270649794664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>868</v>
@@ -1213,19 +1213,19 @@
         <v>684112</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>639102</v>
+        <v>642372</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>727955</v>
+        <v>732895</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3298845003606919</v>
+        <v>0.329884500360692</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3081803583921418</v>
+        <v>0.3097572267049258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.351025913754486</v>
+        <v>0.3534080292080854</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>108010</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87900</v>
+        <v>86946</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>134708</v>
+        <v>133376</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.103212979248105</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08399556899138594</v>
+        <v>0.08308401906749888</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1287250152643937</v>
+        <v>0.1274517582132594</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>106</v>
@@ -1338,19 +1338,19 @@
         <v>83969</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>68060</v>
+        <v>68616</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102814</v>
+        <v>101854</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08015087223750149</v>
+        <v>0.0801508722375015</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06496483357685152</v>
+        <v>0.06549600669304144</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09813878487332427</v>
+        <v>0.09722242461144727</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>197</v>
@@ -1359,19 +1359,19 @@
         <v>191980</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>164466</v>
+        <v>166059</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>221765</v>
+        <v>223554</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09167552534642193</v>
+        <v>0.09167552534642194</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07853722391593852</v>
+        <v>0.07929773160754176</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1058986116338839</v>
+        <v>0.1067530025622424</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>513465</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>478483</v>
+        <v>478240</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>548212</v>
+        <v>549002</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4906593316308861</v>
+        <v>0.4906593316308862</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4572314416536078</v>
+        <v>0.456998834085195</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5238636568356968</v>
+        <v>0.5246178063789083</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>646</v>
@@ -1409,19 +1409,19 @@
         <v>474981</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>446905</v>
+        <v>448391</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>501142</v>
+        <v>506103</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4533813163511382</v>
+        <v>0.4533813163511381</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4265815680616534</v>
+        <v>0.4280002968281691</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4783519575408148</v>
+        <v>0.4830878122637829</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1145</v>
@@ -1430,19 +1430,19 @@
         <v>988446</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>946685</v>
+        <v>939580</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1035122</v>
+        <v>1031140</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4720099782722108</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4520677391716269</v>
+        <v>0.4486750404310184</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4942992277064722</v>
+        <v>0.4923973578134155</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>425004</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>389356</v>
+        <v>391990</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>459644</v>
+        <v>461490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4061276891210089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3720632467492439</v>
+        <v>0.3745797296990502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4392294462718664</v>
+        <v>0.4409931689676682</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>764</v>
@@ -1480,19 +1480,19 @@
         <v>488691</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>461903</v>
+        <v>459011</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>518160</v>
+        <v>518040</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4664678114113604</v>
+        <v>0.4664678114113605</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4408981929907413</v>
+        <v>0.4381373999622953</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4945961189081543</v>
+        <v>0.4944814197044787</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1203</v>
@@ -1501,19 +1501,19 @@
         <v>913695</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>871506</v>
+        <v>871162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>954506</v>
+        <v>963927</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4363144963813672</v>
+        <v>0.4363144963813673</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4161681572592026</v>
+        <v>0.4160034525333522</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4558029066672813</v>
+        <v>0.4603015589207549</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>83675</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64407</v>
+        <v>65279</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105433</v>
+        <v>107830</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08581486017254911</v>
+        <v>0.08581486017254909</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06605409321972301</v>
+        <v>0.06694817810421524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1081290923893996</v>
+        <v>0.1105875782961696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>107</v>
@@ -1626,19 +1626,19 @@
         <v>83274</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>68407</v>
+        <v>67909</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99976</v>
+        <v>101744</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09168636102040374</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07531756055313256</v>
+        <v>0.0747686804739827</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1100758344934739</v>
+        <v>0.1120214429170359</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -1647,19 +1647,19 @@
         <v>166949</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>143350</v>
+        <v>141439</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>194315</v>
+        <v>192991</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08864646090020058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07611593875371467</v>
+        <v>0.07510090910524025</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1031773237175501</v>
+        <v>0.1024741046982476</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>267274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>236205</v>
+        <v>238275</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>297942</v>
+        <v>297691</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2741086859376971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2422455199601728</v>
+        <v>0.2443688541878699</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3055613557094531</v>
+        <v>0.3053045362516737</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>344</v>
@@ -1697,19 +1697,19 @@
         <v>246788</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>224357</v>
+        <v>222065</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>270936</v>
+        <v>271657</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.271717843693124</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2470208062250156</v>
+        <v>0.2444975412069995</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2983054257080323</v>
+        <v>0.2990989129533633</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>584</v>
@@ -1718,19 +1718,19 @@
         <v>514061</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>472910</v>
+        <v>473532</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>555604</v>
+        <v>551149</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2729556739881361</v>
+        <v>0.2729556739881362</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2511051629170232</v>
+        <v>0.2514357638506647</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.295014137121946</v>
+        <v>0.2926485646037886</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>624116</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>592695</v>
+        <v>592398</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>657151</v>
+        <v>658785</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6400764538897539</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.607852863446285</v>
+        <v>0.6075481115152458</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6739567907992448</v>
+        <v>0.6756325156855454</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>869</v>
@@ -1768,19 +1768,19 @@
         <v>578189</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>551093</v>
+        <v>552235</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>602685</v>
+        <v>604116</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6365957952864724</v>
+        <v>0.6365957952864723</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6067633547297647</v>
+        <v>0.6080207664763357</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6635663837125958</v>
+        <v>0.6651418467152702</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1508</v>
@@ -1789,19 +1789,19 @@
         <v>1202304</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1156302</v>
+        <v>1161161</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1243465</v>
+        <v>1244451</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6383978651116632</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6139718631094234</v>
+        <v>0.6165518987849468</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6602538472126271</v>
+        <v>0.6607773720307134</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>344390</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>305421</v>
+        <v>304631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>389725</v>
+        <v>388866</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09903527544218332</v>
+        <v>0.09903527544218331</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08782926778908356</v>
+        <v>0.08760212746559781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1120722624152734</v>
+        <v>0.1118252035025472</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>428</v>
@@ -1914,19 +1914,19 @@
         <v>334096</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>303483</v>
+        <v>302551</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>366082</v>
+        <v>368700</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09045626127719374</v>
+        <v>0.09045626127719371</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0821678041041314</v>
+        <v>0.08191535700905765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09911623552493715</v>
+        <v>0.09982502620464317</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>719</v>
@@ -1935,19 +1935,19 @@
         <v>678486</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>631545</v>
+        <v>625581</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>733568</v>
+        <v>730070</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09461655247658068</v>
+        <v>0.09461655247658071</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08807056941480432</v>
+        <v>0.08723876286487355</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1022979032093318</v>
+        <v>0.1018100811737125</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>1652117</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1588086</v>
+        <v>1589718</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1711464</v>
+        <v>1719784</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4750953670375277</v>
+        <v>0.4750953670375276</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4566820151590035</v>
+        <v>0.4571513867828166</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4921617557260193</v>
+        <v>0.4945542701693169</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2359</v>
@@ -1985,19 +1985,19 @@
         <v>1691259</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1637834</v>
+        <v>1634852</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1743750</v>
+        <v>1745077</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4579066721633497</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4434419563235054</v>
+        <v>0.4426345917751719</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4721184113334315</v>
+        <v>0.4724777498130155</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3920</v>
@@ -2006,19 +2006,19 @@
         <v>3343376</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3257902</v>
+        <v>3256810</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3429006</v>
+        <v>3429692</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4662421259391248</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4543225792664286</v>
+        <v>0.4541702809321034</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4781834391096074</v>
+        <v>0.4782791178137439</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>1480936</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1422463</v>
+        <v>1413263</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1542792</v>
+        <v>1541226</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4258693575202891</v>
+        <v>0.425869357520289</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4090544329474272</v>
+        <v>0.4064085435691393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4436570805487097</v>
+        <v>0.4432066143067061</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2514</v>
@@ -2056,19 +2056,19 @@
         <v>1668103</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1609815</v>
+        <v>1611051</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1712499</v>
+        <v>1724064</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4516370665594566</v>
+        <v>0.4516370665594565</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4358558494426629</v>
+        <v>0.4361905546948137</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4636572917884579</v>
+        <v>0.466788560072126</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3999</v>
@@ -2077,19 +2077,19 @@
         <v>3149039</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3063183</v>
+        <v>3064566</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3230844</v>
+        <v>3235365</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4391413215842944</v>
+        <v>0.4391413215842945</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4271684613360145</v>
+        <v>0.427361384726069</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4505491927133037</v>
+        <v>0.4511797352920637</v>
       </c>
     </row>
     <row r="23">
